--- a/Leske_puzzle_list.xlsx
+++ b/Leske_puzzle_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fef6c3db25312ee/Desktop/Puzzle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fef6c3db25312ee/Desktop/puzzle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{6B798D66-B0F0-4AC0-877C-232D0BFEA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041ED999-F336-41F3-AB2E-F1AAE4C5251B}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{6B798D66-B0F0-4AC0-877C-232D0BFEA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BA5F44E-1EA5-4E0F-8D5F-C08C2799E217}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93745E4E-04A9-434F-98AB-2B1B4C6A22F0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93745E4E-04A9-434F-98AB-2B1B4C6A22F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="315">
   <si>
     <t>PuzzleNum</t>
   </si>
@@ -611,6 +611,378 @@
   </si>
   <si>
     <t>Underwater Seascape</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_002.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_003.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_005.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_006.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_007.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_004.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_008.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_009.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_010.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_011.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_012.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_013.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_014.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_015.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_016.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_017.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_018.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_019.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_020.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_021.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_022.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_023.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_024.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_025.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_026.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_027.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_028.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_029.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_030.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_031.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_001.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_032.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_033.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_034.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_035.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_036.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_037.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_038.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_039.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_040.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_041.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_042.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_043.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_044.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_045.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_046.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_047.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_048.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_049.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_050.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_051.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_052.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_053.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_054.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_055.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_056.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_057.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_058.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_059.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_060.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_061.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_062.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_063.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_064.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_065.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_066.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_067.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_068.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_069.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_070.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_071.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_072.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_073.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_074.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_075.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_076.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_077.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_078.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_079.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_080.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_081.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_082.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_083.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_084.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_085.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_086.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_087.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_088.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_089.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_090.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_091.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_092.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_093.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_094.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_095.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_096.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_097.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_098.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_099.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_100.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_101.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_102.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_103.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_104.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_105.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_106.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_107.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_108.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_109.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_110.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_111.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_112.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_113.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_114.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_115.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_116.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_117.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_118.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_119.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_120.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_121.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_122.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_123.jpg</t>
   </si>
 </sst>
 </file>
@@ -663,6 +1035,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -962,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4443A7F1-90C3-4D7D-8B82-1D6A6D8DE156}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,9 +1349,10 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="67.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,8 +1368,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1008,8 +1388,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1025,8 +1408,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1042,8 +1428,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1059,8 +1448,11 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1076,8 +1468,11 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1093,8 +1488,11 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1110,8 +1508,11 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1127,8 +1528,11 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1144,8 +1548,11 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1161,8 +1568,11 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1178,8 +1588,11 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1195,8 +1608,11 @@
       <c r="E13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1212,8 +1628,11 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1229,8 +1648,11 @@
       <c r="E15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1246,8 +1668,11 @@
       <c r="E16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1263,8 +1688,11 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1280,8 +1708,11 @@
       <c r="E18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1297,8 +1728,11 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1314,8 +1748,11 @@
       <c r="E20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1331,8 +1768,11 @@
       <c r="E21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1348,8 +1788,11 @@
       <c r="E22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1365,8 +1808,11 @@
       <c r="E23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1382,8 +1828,11 @@
       <c r="E24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1399,8 +1848,11 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1416,8 +1868,11 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1433,8 +1888,11 @@
       <c r="E27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1450,8 +1908,11 @@
       <c r="E28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1467,8 +1928,11 @@
       <c r="E29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1484,8 +1948,11 @@
       <c r="E30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1501,8 +1968,11 @@
       <c r="E31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1518,8 +1988,11 @@
       <c r="E32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1535,8 +2008,11 @@
       <c r="E33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1552,8 +2028,11 @@
       <c r="E34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1569,8 +2048,11 @@
       <c r="E35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1586,8 +2068,11 @@
       <c r="E36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1603,8 +2088,11 @@
       <c r="E37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1620,8 +2108,11 @@
       <c r="E38" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1637,8 +2128,11 @@
       <c r="E39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1654,8 +2148,11 @@
       <c r="E40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1671,8 +2168,11 @@
       <c r="E41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1688,8 +2188,11 @@
       <c r="E42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1705,8 +2208,11 @@
       <c r="E43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1722,8 +2228,11 @@
       <c r="E44" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1739,8 +2248,11 @@
       <c r="E45" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1756,8 +2268,11 @@
       <c r="E46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1773,8 +2288,11 @@
       <c r="E47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1790,8 +2308,11 @@
       <c r="E48" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1807,8 +2328,11 @@
       <c r="E49" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1824,8 +2348,11 @@
       <c r="E50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1841,8 +2368,11 @@
       <c r="E51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1858,8 +2388,11 @@
       <c r="E52" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1875,8 +2408,11 @@
       <c r="E53" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1892,8 +2428,11 @@
       <c r="E54" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1909,8 +2448,11 @@
       <c r="E55" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1926,8 +2468,11 @@
       <c r="E56" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1943,8 +2488,11 @@
       <c r="E57" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1960,8 +2508,11 @@
       <c r="E58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1977,8 +2528,11 @@
       <c r="E59" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1994,8 +2548,11 @@
       <c r="E60" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2011,8 +2568,11 @@
       <c r="E61" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2028,8 +2588,11 @@
       <c r="E62" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2045,8 +2608,11 @@
       <c r="E63" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2062,8 +2628,11 @@
       <c r="E64" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2079,8 +2648,11 @@
       <c r="E65" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2096,8 +2668,11 @@
       <c r="E66" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2113,8 +2688,11 @@
       <c r="E67" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2130,8 +2708,11 @@
       <c r="E68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2147,8 +2728,11 @@
       <c r="E69" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2164,8 +2748,11 @@
       <c r="E70" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2181,8 +2768,11 @@
       <c r="E71" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2198,8 +2788,11 @@
       <c r="E72" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2215,8 +2808,11 @@
       <c r="E73" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2232,8 +2828,11 @@
       <c r="E74" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2249,8 +2848,11 @@
       <c r="E75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2266,8 +2868,11 @@
       <c r="E76" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2283,8 +2888,11 @@
       <c r="E77" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2300,8 +2908,11 @@
       <c r="E78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2317,8 +2928,11 @@
       <c r="E79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2334,8 +2948,11 @@
       <c r="E80" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2351,8 +2968,11 @@
       <c r="E81" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2368,8 +2988,11 @@
       <c r="E82" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2385,8 +3008,11 @@
       <c r="E83" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2402,8 +3028,11 @@
       <c r="E84" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2419,8 +3048,11 @@
       <c r="E85" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2436,8 +3068,11 @@
       <c r="E86" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2453,8 +3088,11 @@
       <c r="E87" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2470,8 +3108,11 @@
       <c r="E88" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2487,8 +3128,11 @@
       <c r="E89" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2504,8 +3148,11 @@
       <c r="E90" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2521,8 +3168,11 @@
       <c r="E91" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2538,8 +3188,11 @@
       <c r="E92" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2555,8 +3208,11 @@
       <c r="E93" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2572,8 +3228,11 @@
       <c r="E94" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2589,8 +3248,11 @@
       <c r="E95" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2606,8 +3268,11 @@
       <c r="E96" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2623,8 +3288,11 @@
       <c r="E97" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2640,8 +3308,11 @@
       <c r="E98" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2657,8 +3328,11 @@
       <c r="E99" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2674,8 +3348,11 @@
       <c r="E100" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2691,8 +3368,11 @@
       <c r="E101" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2708,8 +3388,11 @@
       <c r="E102" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2725,8 +3408,11 @@
       <c r="E103" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2742,8 +3428,11 @@
       <c r="E104" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2759,8 +3448,11 @@
       <c r="E105" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2776,8 +3468,11 @@
       <c r="E106" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2793,8 +3488,11 @@
       <c r="E107" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2810,8 +3508,11 @@
       <c r="E108" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2827,8 +3528,11 @@
       <c r="E109" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2844,8 +3548,11 @@
       <c r="E110" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2861,8 +3568,11 @@
       <c r="E111" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2878,8 +3588,11 @@
       <c r="E112" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2895,8 +3608,11 @@
       <c r="E113" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2912,8 +3628,11 @@
       <c r="E114" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2929,8 +3648,11 @@
       <c r="E115" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2946,8 +3668,11 @@
       <c r="E116" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2963,8 +3688,11 @@
       <c r="E117" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2980,8 +3708,11 @@
       <c r="E118" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2997,8 +3728,11 @@
       <c r="E119" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3011,8 +3745,11 @@
       <c r="D120" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3028,8 +3765,11 @@
       <c r="E121" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3045,8 +3785,11 @@
       <c r="E122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3062,8 +3805,11 @@
       <c r="E123" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3078,6 +3824,9 @@
       </c>
       <c r="E124" t="s">
         <v>41</v>
+      </c>
+      <c r="F124" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Leske_puzzle_list.xlsx
+++ b/Leske_puzzle_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fef6c3db25312ee/Desktop/puzzle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{6B798D66-B0F0-4AC0-877C-232D0BFEA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BA5F44E-1EA5-4E0F-8D5F-C08C2799E217}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="8_{6B798D66-B0F0-4AC0-877C-232D0BFEA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9F2907-D92F-466E-874F-1815A2797B83}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93745E4E-04A9-434F-98AB-2B1B4C6A22F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93745E4E-04A9-434F-98AB-2B1B4C6A22F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="375">
   <si>
     <t>PuzzleNum</t>
   </si>
@@ -983,16 +983,204 @@
   </si>
   <si>
     <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_123.jpg</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>14 X 19</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_124.jpg</t>
+  </si>
+  <si>
+    <t>Scooby-Doo!</t>
+  </si>
+  <si>
+    <t>MasterPieces</t>
+  </si>
+  <si>
+    <t>The Jetsons</t>
+  </si>
+  <si>
+    <t>Morning Magic</t>
+  </si>
+  <si>
+    <t>Circle of Colors: Animals</t>
+  </si>
+  <si>
+    <t>20.47 diameter</t>
+  </si>
+  <si>
+    <t>Disney 1951: Alice</t>
+  </si>
+  <si>
+    <t>Animal Yoga</t>
+  </si>
+  <si>
+    <t>Christmas Singbirds</t>
+  </si>
+  <si>
+    <t>Typefaces</t>
+  </si>
+  <si>
+    <t>Tree of Life</t>
+  </si>
+  <si>
+    <t>MinneSNOWta</t>
+  </si>
+  <si>
+    <t>PuzzleTwist</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>San Diego Zoo</t>
+  </si>
+  <si>
+    <t>San Diego Zoo Wildlife Alliance</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Scooby Doo Haunted Game</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Pups in Cups</t>
+  </si>
+  <si>
+    <t>500 total</t>
+  </si>
+  <si>
+    <t>Rose Art</t>
+  </si>
+  <si>
+    <t>You Betcha!</t>
+  </si>
+  <si>
+    <t>26.63 X 19.25</t>
+  </si>
+  <si>
+    <t>Goofy</t>
+  </si>
+  <si>
+    <t>Barbie Around the World</t>
+  </si>
+  <si>
+    <t>Pooh to the Rescue</t>
+  </si>
+  <si>
+    <t>Dr. Suess</t>
+  </si>
+  <si>
+    <t>The OP Puzzles</t>
+  </si>
+  <si>
+    <t>19 X 27</t>
+  </si>
+  <si>
+    <t>Gnomes Get Baking</t>
+  </si>
+  <si>
+    <t>Mickey and Friends</t>
+  </si>
+  <si>
+    <t>Coming Home</t>
+  </si>
+  <si>
+    <t>Sky Roads</t>
+  </si>
+  <si>
+    <t>26.76 X 19.75</t>
+  </si>
+  <si>
+    <t>Front Porch Flag</t>
+  </si>
+  <si>
+    <t>Springtime Cookies</t>
+  </si>
+  <si>
+    <t>Tom + Jerry Hall of Fame</t>
+  </si>
+  <si>
+    <t>Fruits + Vegetables</t>
+  </si>
+  <si>
+    <t>Bedtime Stories</t>
+  </si>
+  <si>
+    <t>19.25 X 26.75</t>
+  </si>
+  <si>
+    <t>Candy Chrome</t>
+  </si>
+  <si>
+    <t>Fireworks Finale</t>
+  </si>
+  <si>
+    <t>Horseplay</t>
+  </si>
+  <si>
+    <t>Nordic Love</t>
+  </si>
+  <si>
+    <t>19.25 X 26.63</t>
+  </si>
+  <si>
+    <t>Hitting the Road</t>
+  </si>
+  <si>
+    <t>VW Gone Places</t>
+  </si>
+  <si>
+    <t>Love at Home</t>
+  </si>
+  <si>
+    <t>Colorly Love</t>
+  </si>
+  <si>
+    <t>16 X 20</t>
+  </si>
+  <si>
+    <t>Childhood Stories</t>
+  </si>
+  <si>
+    <t>20.5 X 27</t>
+  </si>
+  <si>
+    <t>Winter Welcome</t>
+  </si>
+  <si>
+    <t>Vermont Christmas Company</t>
+  </si>
+  <si>
+    <t>Christmas Barn Snowman</t>
+  </si>
+  <si>
+    <t>Farmer's Market Trucks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1015,13 +1203,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1037,14 +1228,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1082,7 +1269,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1188,7 +1375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1330,7 +1517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1338,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4443A7F1-90C3-4D7D-8B82-1D6A6D8DE156}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3829,8 +4016,759 @@
         <v>314</v>
       </c>
     </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>315</v>
+      </c>
+      <c r="C125">
+        <v>500</v>
+      </c>
+      <c r="D125" t="s">
+        <v>319</v>
+      </c>
+      <c r="E125" t="s">
+        <v>316</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>318</v>
+      </c>
+      <c r="C126">
+        <v>500</v>
+      </c>
+      <c r="D126" t="s">
+        <v>319</v>
+      </c>
+      <c r="E126" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>320</v>
+      </c>
+      <c r="C127">
+        <v>500</v>
+      </c>
+      <c r="D127" t="s">
+        <v>319</v>
+      </c>
+      <c r="E127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>321</v>
+      </c>
+      <c r="C128">
+        <v>500</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>322</v>
+      </c>
+      <c r="C129">
+        <v>500</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>324</v>
+      </c>
+      <c r="C130">
+        <v>1000</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>325</v>
+      </c>
+      <c r="C131">
+        <v>500</v>
+      </c>
+      <c r="D131" t="s">
+        <v>185</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>326</v>
+      </c>
+      <c r="C132">
+        <v>500</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>327</v>
+      </c>
+      <c r="C133">
+        <v>500</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134">
+        <v>275</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>329</v>
+      </c>
+      <c r="C135">
+        <v>500</v>
+      </c>
+      <c r="D135" t="s">
+        <v>330</v>
+      </c>
+      <c r="E135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>331</v>
+      </c>
+      <c r="C136">
+        <v>300</v>
+      </c>
+      <c r="D136" t="s">
+        <v>56</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>332</v>
+      </c>
+      <c r="C137">
+        <v>500</v>
+      </c>
+      <c r="D137" t="s">
+        <v>333</v>
+      </c>
+      <c r="E137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138">
+        <v>500</v>
+      </c>
+      <c r="D138" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>334</v>
+      </c>
+      <c r="C139">
+        <v>1000</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>335</v>
+      </c>
+      <c r="C140">
+        <v>200</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>336</v>
+      </c>
+      <c r="C141">
+        <v>100</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>337</v>
+      </c>
+      <c r="C142" t="s">
+        <v>338</v>
+      </c>
+      <c r="D142" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>340</v>
+      </c>
+      <c r="C143">
+        <v>1000</v>
+      </c>
+      <c r="D143" t="s">
+        <v>330</v>
+      </c>
+      <c r="E143" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144">
+        <v>300</v>
+      </c>
+      <c r="D144" t="s">
+        <v>56</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>342</v>
+      </c>
+      <c r="C145">
+        <v>1000</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>343</v>
+      </c>
+      <c r="C146">
+        <v>1000</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>344</v>
+      </c>
+      <c r="C147">
+        <v>100</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>345</v>
+      </c>
+      <c r="C148">
+        <v>1000</v>
+      </c>
+      <c r="D148" t="s">
+        <v>346</v>
+      </c>
+      <c r="E148" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>348</v>
+      </c>
+      <c r="C149">
+        <v>300</v>
+      </c>
+      <c r="D149" t="s">
+        <v>56</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>349</v>
+      </c>
+      <c r="C150">
+        <v>300</v>
+      </c>
+      <c r="D150" t="s">
+        <v>56</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>350</v>
+      </c>
+      <c r="C151">
+        <v>750</v>
+      </c>
+      <c r="D151" t="s">
+        <v>56</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>351</v>
+      </c>
+      <c r="C152">
+        <v>1000</v>
+      </c>
+      <c r="D152" t="s">
+        <v>33</v>
+      </c>
+      <c r="E152" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>353</v>
+      </c>
+      <c r="C153">
+        <v>500</v>
+      </c>
+      <c r="D153" t="s">
+        <v>33</v>
+      </c>
+      <c r="E153" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>354</v>
+      </c>
+      <c r="C154">
+        <v>500</v>
+      </c>
+      <c r="D154" t="s">
+        <v>40</v>
+      </c>
+      <c r="E154" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>355</v>
+      </c>
+      <c r="C155">
+        <v>1000</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>356</v>
+      </c>
+      <c r="C156">
+        <v>500</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157">
+        <v>1000</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>359</v>
+      </c>
+      <c r="C158">
+        <v>500</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>360</v>
+      </c>
+      <c r="C159">
+        <v>750</v>
+      </c>
+      <c r="D159" t="s">
+        <v>319</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>361</v>
+      </c>
+      <c r="C160">
+        <v>1000</v>
+      </c>
+      <c r="D160" t="s">
+        <v>330</v>
+      </c>
+      <c r="E160" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>362</v>
+      </c>
+      <c r="C161">
+        <v>1000</v>
+      </c>
+      <c r="D161" t="s">
+        <v>330</v>
+      </c>
+      <c r="E161" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>364</v>
+      </c>
+      <c r="C162">
+        <v>500</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>365</v>
+      </c>
+      <c r="C163">
+        <v>1000</v>
+      </c>
+      <c r="D163" t="s">
+        <v>127</v>
+      </c>
+      <c r="E163" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>366</v>
+      </c>
+      <c r="C164">
+        <v>500</v>
+      </c>
+      <c r="D164" t="s">
+        <v>367</v>
+      </c>
+      <c r="E164" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>369</v>
+      </c>
+      <c r="C165">
+        <v>400</v>
+      </c>
+      <c r="D165" t="s">
+        <v>40</v>
+      </c>
+      <c r="E165" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>371</v>
+      </c>
+      <c r="C166">
+        <v>1000</v>
+      </c>
+      <c r="D166" t="s">
+        <v>372</v>
+      </c>
+      <c r="E166" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>373</v>
+      </c>
+      <c r="C167">
+        <v>500</v>
+      </c>
+      <c r="D167" t="s">
+        <v>46</v>
+      </c>
+      <c r="E167" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>374</v>
+      </c>
+      <c r="C168">
+        <v>1000</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E124" xr:uid="{4443A7F1-90C3-4D7D-8B82-1D6A6D8DE156}"/>
+  <hyperlinks>
+    <hyperlink ref="F125" r:id="rId1" xr:uid="{3124A516-1BC5-4E3C-BBB7-3F18C54FBB34}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Leske_puzzle_list.xlsx
+++ b/Leske_puzzle_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fef6c3db25312ee/Desktop/puzzle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="8_{6B798D66-B0F0-4AC0-877C-232D0BFEA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9F2907-D92F-466E-874F-1815A2797B83}"/>
+  <xr:revisionPtr revIDLastSave="508" documentId="8_{6B798D66-B0F0-4AC0-877C-232D0BFEA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C44C95E-765A-4C33-8839-B66CFF9B1364}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93745E4E-04A9-434F-98AB-2B1B4C6A22F0}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="418">
   <si>
     <t>PuzzleNum</t>
   </si>
@@ -616,384 +616,12 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_002.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_003.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_005.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_006.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_007.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_004.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_008.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_009.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_010.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_011.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_012.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_013.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_014.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_015.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_016.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_017.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_018.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_019.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_020.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_021.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_022.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_023.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_024.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_025.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_026.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_027.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_028.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_029.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_030.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_031.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_001.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_032.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_033.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_034.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_035.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_036.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_037.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_038.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_039.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_040.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_041.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_042.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_043.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_044.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_045.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_046.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_047.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_048.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_049.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_050.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_051.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_052.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_053.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_054.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_055.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_056.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_057.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_058.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_059.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_060.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_061.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_062.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_063.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_064.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_065.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_066.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_067.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_068.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_069.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_070.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_071.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_072.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_073.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_074.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_075.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_076.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_077.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_078.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_079.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_080.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_081.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_082.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_083.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_084.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_085.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_086.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_087.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_088.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_089.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_090.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_091.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_092.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_093.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_094.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_095.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_096.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_097.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_098.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_099.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_100.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_101.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_102.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_103.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_104.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_105.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_106.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_107.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_108.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_109.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_110.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_111.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_112.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_113.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_114.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_115.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_116.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_117.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_118.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_119.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_120.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_121.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_122.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_123.jpg</t>
-  </si>
-  <si>
     <t>The Flintstones</t>
   </si>
   <si>
     <t>14 X 19</t>
   </si>
   <si>
-    <t>https://github.com/DALeske/puzzle/blob/main/Puzzle_pics/Puzzle_124.jpg</t>
-  </si>
-  <si>
     <t>Scooby-Doo!</t>
   </si>
   <si>
@@ -1163,6 +791,507 @@
   </si>
   <si>
     <t>Farmer's Market Trucks</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_123.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_002.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_003.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_004.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_005.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_007.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_008.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_009.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_011.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_013.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_014.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_015.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_016.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_017.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_018.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_019.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_020.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_021.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_022.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_023.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_024.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_025.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_026.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_027.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_028.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_029.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_030.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_031.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_032.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_033.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_035.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_036.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_038.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_039.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_040.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_041.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_042.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_043.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_044.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_045.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_046.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_047.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_048.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_050.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_051.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_052.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_053.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_054.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_055.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_056.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_057.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_058.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_059.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_060.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_061.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_062.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_063.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_064.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_065.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_066.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_067.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_069.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_071.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_073.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_075.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_076.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_077.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_078.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_079.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_080.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_081.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_082.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_083.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_084.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_085.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_086.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_087.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_088.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_089.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_090.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_092.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_093.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_094.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_095.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_096.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_097.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_098.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_099.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_100.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_101.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_102.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_103.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_104.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_105.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_106.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_107.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_108.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_109.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_110.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_111.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_112.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_113.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_114.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_115.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_116.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_117.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_118.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_119.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_120.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_121.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_122.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_124.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_125.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_126.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_127.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_128.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_129.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_130.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_131.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_132.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_133.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_134.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_135.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_136.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_137.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_138.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_139.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_140.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_141.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_142.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_143.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_144.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_145.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_146.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_147.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_148.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_149.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_150.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_151.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_152.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_153.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_154.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_155.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_156.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_157.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_158.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_159.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_160.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_161.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_162.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_163.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_164.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_165.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_166.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_167.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_001.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_006.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_010.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_012.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_034.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_037.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_049.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_068.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_070.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_072.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_074.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/DALeske/puzzle/blob/main/static/images/Puzzle_091.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1229,9 +1358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1269,7 +1398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1375,7 +1504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1517,7 +1646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1527,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4443A7F1-90C3-4D7D-8B82-1D6A6D8DE156}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1575,8 +1704,8 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>222</v>
+      <c r="F2" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1595,8 +1724,8 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>192</v>
+      <c r="F3" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1616,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1636,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1656,7 +1785,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1675,8 +1804,8 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>195</v>
+      <c r="F7" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1696,7 +1825,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1716,7 +1845,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1736,7 +1865,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1755,8 +1884,8 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>200</v>
+      <c r="F11" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1776,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1795,8 +1924,8 @@
       <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
-        <v>202</v>
+      <c r="F13" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1816,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1836,7 +1965,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1856,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1876,7 +2005,7 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1896,7 +2025,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1916,7 +2045,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1936,7 +2065,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1956,7 +2085,7 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1976,7 +2105,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1996,7 +2125,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2016,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2036,7 +2165,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2056,7 +2185,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2076,7 +2205,7 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2096,7 +2225,7 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2116,7 +2245,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2136,7 +2265,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2156,7 +2285,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2176,7 +2305,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2196,7 +2325,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2216,7 +2345,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2235,8 +2364,8 @@
       <c r="E35" t="s">
         <v>7</v>
       </c>
-      <c r="F35" t="s">
-        <v>225</v>
+      <c r="F35" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2256,7 +2385,7 @@
         <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2276,7 +2405,7 @@
         <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2295,8 +2424,8 @@
       <c r="E38" t="s">
         <v>62</v>
       </c>
-      <c r="F38" t="s">
-        <v>228</v>
+      <c r="F38" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2316,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2336,7 +2465,7 @@
         <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2356,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2376,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2396,7 +2525,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2416,7 +2545,7 @@
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2436,7 +2565,7 @@
         <v>71</v>
       </c>
       <c r="F45" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2456,7 +2585,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2476,7 +2605,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2496,7 +2625,7 @@
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2516,7 +2645,7 @@
         <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2535,8 +2664,8 @@
       <c r="E50" t="s">
         <v>7</v>
       </c>
-      <c r="F50" t="s">
-        <v>240</v>
+      <c r="F50" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2556,7 +2685,7 @@
         <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2576,7 +2705,7 @@
         <v>79</v>
       </c>
       <c r="F52" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2596,7 +2725,7 @@
         <v>81</v>
       </c>
       <c r="F53" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2616,7 +2745,7 @@
         <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2636,7 +2765,7 @@
         <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2656,7 +2785,7 @@
         <v>85</v>
       </c>
       <c r="F56" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2676,7 +2805,7 @@
         <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2696,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2716,7 +2845,7 @@
         <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2736,7 +2865,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2756,7 +2885,7 @@
         <v>95</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2776,7 +2905,7 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2796,7 +2925,7 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2816,7 +2945,7 @@
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2836,7 +2965,7 @@
         <v>102</v>
       </c>
       <c r="F65" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2856,7 +2985,7 @@
         <v>104</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2876,7 +3005,7 @@
         <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2896,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2915,8 +3044,8 @@
       <c r="E69" t="s">
         <v>10</v>
       </c>
-      <c r="F69" t="s">
-        <v>259</v>
+      <c r="F69" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2936,7 +3065,7 @@
         <v>95</v>
       </c>
       <c r="F70" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2955,8 +3084,8 @@
       <c r="E71" t="s">
         <v>111</v>
       </c>
-      <c r="F71" t="s">
-        <v>261</v>
+      <c r="F71" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2976,7 +3105,7 @@
         <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2995,8 +3124,8 @@
       <c r="E73" t="s">
         <v>7</v>
       </c>
-      <c r="F73" t="s">
-        <v>263</v>
+      <c r="F73" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3016,7 +3145,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3035,8 +3164,8 @@
       <c r="E75" t="s">
         <v>7</v>
       </c>
-      <c r="F75" t="s">
-        <v>265</v>
+      <c r="F75" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3056,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3076,7 +3205,7 @@
         <v>121</v>
       </c>
       <c r="F77" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3096,7 +3225,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3116,7 +3245,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3136,7 +3265,7 @@
         <v>125</v>
       </c>
       <c r="F80" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3156,7 +3285,7 @@
         <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3176,7 +3305,7 @@
         <v>130</v>
       </c>
       <c r="F82" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3196,7 +3325,7 @@
         <v>132</v>
       </c>
       <c r="F83" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3216,7 +3345,7 @@
         <v>132</v>
       </c>
       <c r="F84" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3236,7 +3365,7 @@
         <v>132</v>
       </c>
       <c r="F85" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3256,7 +3385,7 @@
         <v>132</v>
       </c>
       <c r="F86" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3276,7 +3405,7 @@
         <v>132</v>
       </c>
       <c r="F87" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3296,7 +3425,7 @@
         <v>138</v>
       </c>
       <c r="F88" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3316,7 +3445,7 @@
         <v>140</v>
       </c>
       <c r="F89" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3336,7 +3465,7 @@
         <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3356,7 +3485,7 @@
         <v>144</v>
       </c>
       <c r="F91" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3375,8 +3504,8 @@
       <c r="E92" t="s">
         <v>7</v>
       </c>
-      <c r="F92" t="s">
-        <v>282</v>
+      <c r="F92" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3396,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3416,7 +3545,7 @@
         <v>148</v>
       </c>
       <c r="F94" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3436,7 +3565,7 @@
         <v>79</v>
       </c>
       <c r="F95" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3456,7 +3585,7 @@
         <v>79</v>
       </c>
       <c r="F96" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3476,7 +3605,7 @@
         <v>79</v>
       </c>
       <c r="F97" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3496,7 +3625,7 @@
         <v>79</v>
       </c>
       <c r="F98" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3516,7 +3645,7 @@
         <v>155</v>
       </c>
       <c r="F99" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3536,7 +3665,7 @@
         <v>121</v>
       </c>
       <c r="F100" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3556,7 +3685,7 @@
         <v>155</v>
       </c>
       <c r="F101" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3576,7 +3705,7 @@
         <v>160</v>
       </c>
       <c r="F102" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3596,7 +3725,7 @@
         <v>162</v>
       </c>
       <c r="F103" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3616,7 +3745,7 @@
         <v>138</v>
       </c>
       <c r="F104" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3636,7 +3765,7 @@
         <v>144</v>
       </c>
       <c r="F105" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3656,7 +3785,7 @@
         <v>79</v>
       </c>
       <c r="F106" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3676,7 +3805,7 @@
         <v>79</v>
       </c>
       <c r="F107" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3696,7 +3825,7 @@
         <v>168</v>
       </c>
       <c r="F108" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3716,7 +3845,7 @@
         <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3736,7 +3865,7 @@
         <v>168</v>
       </c>
       <c r="F110" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3756,7 +3885,7 @@
         <v>172</v>
       </c>
       <c r="F111" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3776,7 +3905,7 @@
         <v>172</v>
       </c>
       <c r="F112" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3796,7 +3925,7 @@
         <v>176</v>
       </c>
       <c r="F113" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3816,7 +3945,7 @@
         <v>92</v>
       </c>
       <c r="F114" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3836,7 +3965,7 @@
         <v>179</v>
       </c>
       <c r="F115" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3856,7 +3985,7 @@
         <v>92</v>
       </c>
       <c r="F116" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3876,7 +4005,7 @@
         <v>92</v>
       </c>
       <c r="F117" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3896,7 +4025,7 @@
         <v>176</v>
       </c>
       <c r="F118" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3916,7 +4045,7 @@
         <v>92</v>
       </c>
       <c r="F119" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3933,7 +4062,7 @@
         <v>185</v>
       </c>
       <c r="F120" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3953,7 +4082,7 @@
         <v>187</v>
       </c>
       <c r="F121" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3973,7 +4102,7 @@
         <v>121</v>
       </c>
       <c r="F122" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3993,7 +4122,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4013,7 +4142,7 @@
         <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4021,19 +4150,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="C125">
         <v>500</v>
       </c>
       <c r="D125" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="E125" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4041,16 +4170,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="C126">
         <v>500</v>
       </c>
       <c r="D126" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="E126" t="s">
-        <v>316</v>
+        <v>193</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4058,16 +4190,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>320</v>
+        <v>196</v>
       </c>
       <c r="C127">
         <v>500</v>
       </c>
       <c r="D127" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="E127" t="s">
-        <v>316</v>
+        <v>193</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4075,7 +4210,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="C128">
         <v>500</v>
@@ -4086,13 +4221,16 @@
       <c r="E128" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="C129">
         <v>500</v>
@@ -4101,15 +4239,18 @@
         <v>18</v>
       </c>
       <c r="E129" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="C130">
         <v>1000</v>
@@ -4120,13 +4261,16 @@
       <c r="E130" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>325</v>
+        <v>201</v>
       </c>
       <c r="C131">
         <v>500</v>
@@ -4137,13 +4281,16 @@
       <c r="E131" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="C132">
         <v>500</v>
@@ -4154,13 +4301,16 @@
       <c r="E132" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="C133">
         <v>500</v>
@@ -4171,13 +4321,16 @@
       <c r="E133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="C134">
         <v>275</v>
@@ -4188,30 +4341,36 @@
       <c r="E134" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>329</v>
+        <v>205</v>
       </c>
       <c r="C135">
         <v>500</v>
       </c>
       <c r="D135" t="s">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="E135" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>331</v>
+        <v>207</v>
       </c>
       <c r="C136">
         <v>300</v>
@@ -4222,25 +4381,31 @@
       <c r="E136" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>332</v>
+        <v>208</v>
       </c>
       <c r="C137">
         <v>500</v>
       </c>
       <c r="D137" t="s">
-        <v>333</v>
+        <v>209</v>
       </c>
       <c r="E137" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4254,15 +4419,18 @@
         <v>91</v>
       </c>
       <c r="E138" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>210</v>
       </c>
       <c r="C139">
         <v>1000</v>
@@ -4273,13 +4441,16 @@
       <c r="E139" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>335</v>
+        <v>211</v>
       </c>
       <c r="C140">
         <v>200</v>
@@ -4290,13 +4461,16 @@
       <c r="E140" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>336</v>
+        <v>212</v>
       </c>
       <c r="C141">
         <v>100</v>
@@ -4307,39 +4481,48 @@
       <c r="E141" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c r="D142" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>340</v>
+        <v>216</v>
       </c>
       <c r="C143">
         <v>1000</v>
       </c>
       <c r="D143" t="s">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="E143" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4355,13 +4538,16 @@
       <c r="E144" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
       <c r="C145">
         <v>1000</v>
@@ -4372,13 +4558,16 @@
       <c r="E145" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="C146">
         <v>1000</v>
@@ -4389,13 +4578,16 @@
       <c r="E146" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
       <c r="C147">
         <v>100</v>
@@ -4406,30 +4598,36 @@
       <c r="E147" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
       <c r="C148">
         <v>1000</v>
       </c>
       <c r="D148" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="E148" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>348</v>
+        <v>224</v>
       </c>
       <c r="C149">
         <v>300</v>
@@ -4440,13 +4638,16 @@
       <c r="E149" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>349</v>
+        <v>225</v>
       </c>
       <c r="C150">
         <v>300</v>
@@ -4457,13 +4658,16 @@
       <c r="E150" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>350</v>
+        <v>226</v>
       </c>
       <c r="C151">
         <v>750</v>
@@ -4474,13 +4678,16 @@
       <c r="E151" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>351</v>
+        <v>227</v>
       </c>
       <c r="C152">
         <v>1000</v>
@@ -4489,15 +4696,18 @@
         <v>33</v>
       </c>
       <c r="E152" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>353</v>
+        <v>229</v>
       </c>
       <c r="C153">
         <v>500</v>
@@ -4508,13 +4718,16 @@
       <c r="E153" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>354</v>
+        <v>230</v>
       </c>
       <c r="C154">
         <v>500</v>
@@ -4525,13 +4738,16 @@
       <c r="E154" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>355</v>
+        <v>231</v>
       </c>
       <c r="C155">
         <v>1000</v>
@@ -4542,13 +4758,16 @@
       <c r="E155" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>356</v>
+        <v>232</v>
       </c>
       <c r="C156">
         <v>500</v>
@@ -4557,15 +4776,18 @@
         <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>357</v>
+        <v>233</v>
       </c>
       <c r="C157">
         <v>1000</v>
@@ -4574,15 +4796,18 @@
         <v>6</v>
       </c>
       <c r="E157" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>359</v>
+        <v>235</v>
       </c>
       <c r="C158">
         <v>500</v>
@@ -4593,64 +4818,76 @@
       <c r="E158" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>360</v>
+        <v>236</v>
       </c>
       <c r="C159">
         <v>750</v>
       </c>
       <c r="D159" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="E159" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>361</v>
+        <v>237</v>
       </c>
       <c r="C160">
         <v>1000</v>
       </c>
       <c r="D160" t="s">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="E160" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>362</v>
+        <v>238</v>
       </c>
       <c r="C161">
         <v>1000</v>
       </c>
       <c r="D161" t="s">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="E161" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="C162">
         <v>500</v>
@@ -4659,15 +4896,18 @@
         <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>365</v>
+        <v>241</v>
       </c>
       <c r="C163">
         <v>1000</v>
@@ -4676,32 +4916,38 @@
         <v>127</v>
       </c>
       <c r="E163" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>366</v>
+        <v>242</v>
       </c>
       <c r="C164">
         <v>500</v>
       </c>
       <c r="D164" t="s">
-        <v>367</v>
+        <v>243</v>
       </c>
       <c r="E164" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>369</v>
+        <v>245</v>
       </c>
       <c r="C165">
         <v>400</v>
@@ -4710,32 +4956,38 @@
         <v>40</v>
       </c>
       <c r="E165" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="C166">
         <v>1000</v>
       </c>
       <c r="D166" t="s">
-        <v>372</v>
+        <v>248</v>
       </c>
       <c r="E166" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>373</v>
+        <v>249</v>
       </c>
       <c r="C167">
         <v>500</v>
@@ -4746,13 +4998,16 @@
       <c r="E167" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>374</v>
+        <v>250</v>
       </c>
       <c r="C168">
         <v>1000</v>
@@ -4761,13 +5016,72 @@
         <v>12</v>
       </c>
       <c r="E168" t="s">
-        <v>341</v>
+        <v>217</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E124" xr:uid="{4443A7F1-90C3-4D7D-8B82-1D6A6D8DE156}"/>
   <hyperlinks>
-    <hyperlink ref="F125" r:id="rId1" xr:uid="{3124A516-1BC5-4E3C-BBB7-3F18C54FBB34}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{571D22FC-DB88-4FB8-8013-C11BC25C5B79}"/>
+    <hyperlink ref="F125" r:id="rId2" xr:uid="{C38A8CF9-921C-41A9-9750-98468B86A600}"/>
+    <hyperlink ref="F126" r:id="rId3" xr:uid="{E28CBC53-67CB-4F10-8A3F-02516FBB80F5}"/>
+    <hyperlink ref="F127" r:id="rId4" xr:uid="{830D4D20-F027-4A84-98C2-CD0FFED0CDB5}"/>
+    <hyperlink ref="F128" r:id="rId5" xr:uid="{49145DCD-4245-425F-96BA-98FB48E33EC5}"/>
+    <hyperlink ref="F129" r:id="rId6" xr:uid="{C3114097-3B1A-4A28-B215-D64D8DBD1167}"/>
+    <hyperlink ref="F130" r:id="rId7" xr:uid="{E3193E45-8BB0-4334-8DFD-08E0E7DAC7C2}"/>
+    <hyperlink ref="F131" r:id="rId8" xr:uid="{CA51AE1B-389E-48A3-B1E5-E664AD8E0C70}"/>
+    <hyperlink ref="F132" r:id="rId9" xr:uid="{60AAA66E-E32B-4357-B41F-BBCDB4C5EAD3}"/>
+    <hyperlink ref="F133" r:id="rId10" xr:uid="{B6F2262C-DB6D-4DFE-939F-F2C496FD3731}"/>
+    <hyperlink ref="F134" r:id="rId11" xr:uid="{02F679E2-6CA6-465F-B708-BD4B5B0E5D57}"/>
+    <hyperlink ref="F135" r:id="rId12" xr:uid="{EC01A0A5-DDA8-42EE-89BE-19554945B928}"/>
+    <hyperlink ref="F136" r:id="rId13" xr:uid="{8004C009-D194-48E4-92C7-C99780C9B6E1}"/>
+    <hyperlink ref="F137" r:id="rId14" xr:uid="{BFF09ED8-842B-4512-AA1C-147BC8F456FF}"/>
+    <hyperlink ref="F138" r:id="rId15" xr:uid="{72803A25-C66D-44B6-87E1-40744E909890}"/>
+    <hyperlink ref="F139" r:id="rId16" xr:uid="{AE641D10-0A3E-4BD6-A69C-E9848ED93061}"/>
+    <hyperlink ref="F140" r:id="rId17" xr:uid="{3B381371-1139-4C0C-A787-2EC9397516BF}"/>
+    <hyperlink ref="F141" r:id="rId18" xr:uid="{D578CB73-FD33-4A3D-9CBE-92B9AC61F540}"/>
+    <hyperlink ref="F142" r:id="rId19" xr:uid="{8680E53F-4A34-4168-9EFC-B27D8EB6E66C}"/>
+    <hyperlink ref="F143" r:id="rId20" xr:uid="{19863001-FCB3-4A77-90DA-3E2009851B61}"/>
+    <hyperlink ref="F144" r:id="rId21" xr:uid="{98D74388-ED21-4467-86DD-408FAA40B5B4}"/>
+    <hyperlink ref="F145" r:id="rId22" xr:uid="{A518F626-0C90-4241-9BEC-03970993627C}"/>
+    <hyperlink ref="F146" r:id="rId23" xr:uid="{405A4C88-0828-4299-9CDD-BDD630C21311}"/>
+    <hyperlink ref="F147" r:id="rId24" xr:uid="{DA38291B-FFAD-4DC8-A23A-C3B99F356BE7}"/>
+    <hyperlink ref="F148" r:id="rId25" xr:uid="{C2A456ED-6D5B-4C3E-9844-193D4D7BF02D}"/>
+    <hyperlink ref="F149" r:id="rId26" xr:uid="{B5981099-B506-40F1-B2E6-599B08ECFB7F}"/>
+    <hyperlink ref="F150" r:id="rId27" xr:uid="{BF31C8D8-8A6E-4AB0-83A4-3295AB77C2A1}"/>
+    <hyperlink ref="F151" r:id="rId28" xr:uid="{6C0CF121-70D6-4779-9E7B-E5AC881AE1F4}"/>
+    <hyperlink ref="F152" r:id="rId29" xr:uid="{B555475D-AA5D-4DD7-BD86-425121D0B585}"/>
+    <hyperlink ref="F153" r:id="rId30" xr:uid="{59655042-3D0F-4988-AF94-D2EAE837D9F1}"/>
+    <hyperlink ref="F154" r:id="rId31" xr:uid="{B65B57F5-DDDC-421B-86CB-AA7B9EC83EA4}"/>
+    <hyperlink ref="F155" r:id="rId32" xr:uid="{F7E73982-80D6-4ADD-81F1-C87F2F1A6052}"/>
+    <hyperlink ref="F156" r:id="rId33" xr:uid="{486B1A09-D1FF-4A76-8065-DAF5622FEE85}"/>
+    <hyperlink ref="F157" r:id="rId34" xr:uid="{27D8A5BE-EAB4-4EA1-A209-A799E4972A33}"/>
+    <hyperlink ref="F158" r:id="rId35" xr:uid="{3DED97D7-548F-43C5-AFEB-0E42878C7F16}"/>
+    <hyperlink ref="F159" r:id="rId36" xr:uid="{C40836AF-253B-4968-A180-3D778F4B000D}"/>
+    <hyperlink ref="F160" r:id="rId37" xr:uid="{70760C64-1062-467B-B493-B3D18A67C06D}"/>
+    <hyperlink ref="F161" r:id="rId38" xr:uid="{1751117D-F718-42AA-8EEF-C314BD4E6EDD}"/>
+    <hyperlink ref="F162" r:id="rId39" xr:uid="{C2D46308-E84C-4EB6-A2A7-F0CD5644B86A}"/>
+    <hyperlink ref="F163" r:id="rId40" xr:uid="{D9E751C4-57E6-4426-AD5B-E8E35CA711A8}"/>
+    <hyperlink ref="F164" r:id="rId41" xr:uid="{1E3090DE-5F14-40A0-B068-FA0410047228}"/>
+    <hyperlink ref="F165" r:id="rId42" xr:uid="{000BA945-168D-4514-BA43-5983EFFE571D}"/>
+    <hyperlink ref="F166" r:id="rId43" xr:uid="{41C1DC10-A3EB-4671-A787-A8B6D8D6C4E6}"/>
+    <hyperlink ref="F167" r:id="rId44" xr:uid="{A0DED850-9723-4A31-BAD8-4CCDD469CE9D}"/>
+    <hyperlink ref="F168" r:id="rId45" xr:uid="{BADB420B-5F67-48A7-901E-9D9F0A85E49A}"/>
+    <hyperlink ref="F2" r:id="rId46" xr:uid="{D43A0608-3025-4E10-8E2E-5311FC61D4B4}"/>
+    <hyperlink ref="F7" r:id="rId47" xr:uid="{076A97D8-03AD-4176-9564-55FABF74946B}"/>
+    <hyperlink ref="F11" r:id="rId48" xr:uid="{AA7039FA-CD6C-4742-8C77-40090A0B41D6}"/>
+    <hyperlink ref="F13" r:id="rId49" xr:uid="{13F311E4-36BA-4CFD-998B-C1E9EDAEDD6C}"/>
+    <hyperlink ref="F35" r:id="rId50" xr:uid="{BA484B96-6FE5-4E91-A6B9-A3AE8C72FABE}"/>
+    <hyperlink ref="F38" r:id="rId51" xr:uid="{6B26CD61-05BD-4FBE-99EA-69638465E280}"/>
+    <hyperlink ref="F50" r:id="rId52" xr:uid="{28E0AAFD-810A-4D4B-808B-C26BE5C7FDF9}"/>
+    <hyperlink ref="F69" r:id="rId53" xr:uid="{14C00680-EB91-4078-A7EB-7CDD767B6010}"/>
+    <hyperlink ref="F71" r:id="rId54" xr:uid="{C6DF508C-65F2-4339-85EE-0627C6CB9023}"/>
+    <hyperlink ref="F73" r:id="rId55" xr:uid="{D349BC95-A2D9-41A1-85BC-A99C7E9055CE}"/>
+    <hyperlink ref="F75" r:id="rId56" xr:uid="{6A58F0CE-BA52-47BB-A249-7C0BC00EDCCC}"/>
+    <hyperlink ref="F92" r:id="rId57" xr:uid="{B70BF618-8F37-4856-B7C7-2DD4686C8938}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leske_puzzle_list.xlsx
+++ b/Leske_puzzle_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fef6c3db25312ee/Desktop/puzzle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="508" documentId="8_{6B798D66-B0F0-4AC0-877C-232D0BFEA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C44C95E-765A-4C33-8839-B66CFF9B1364}"/>
+  <xr:revisionPtr revIDLastSave="509" documentId="8_{6B798D66-B0F0-4AC0-877C-232D0BFEA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E12E3A-94EF-4E48-93E7-71012172AFF8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93745E4E-04A9-434F-98AB-2B1B4C6A22F0}"/>
+    <workbookView xWindow="28680" yWindow="555" windowWidth="24240" windowHeight="13020" xr2:uid="{93745E4E-04A9-434F-98AB-2B1B4C6A22F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4443A7F1-90C3-4D7D-8B82-1D6A6D8DE156}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
